--- a/biology/Zoologie/Janolus/Janolus.xlsx
+++ b/biology/Zoologie/Janolus/Janolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janolus est un genre de gastéropodes marins appartenant à la famille des proctonotidés. Il regroupe des proctonotidés aeoliformes disposant de tentacules oraux bien distincts et d'un anus medio-dorsal. Ce genre se caractérise par de grands rhinophores non rétractiles séparés par un caroncule[1].
-Bien que les espèces du genre Janolus ressemblent beaucoup aux aéolidiens, il n'y a pas de relation avec ce sous-ordre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Janolus est un genre de gastéropodes marins appartenant à la famille des proctonotidés. Il regroupe des proctonotidés aeoliformes disposant de tentacules oraux bien distincts et d'un anus medio-dorsal. Ce genre se caractérise par de grands rhinophores non rétractiles séparés par un caroncule.
+Bien que les espèces du genre Janolus ressemblent beaucoup aux aéolidiens, il n'y a pas de relation avec ce sous-ordre.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 septembre 2021)[3], on compte 19 espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 septembre 2021), on compte 19 espèces :
 Janolus anulatus Camacho-Garcia &amp; Gosliner, 2006
 Janolus australis Bergh, 1884
 Janolus chilensis M. A. Fischer, Cervera &amp; Ortea, 1997
